--- a/loc_dep_matrix.xlsx
+++ b/loc_dep_matrix.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD30"/>
+  <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:32">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -460,441 +460,471 @@
       <c r="AD1" s="1">
         <v>29</v>
       </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>3</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>5</v>
+      </c>
+      <c r="AC3">
+        <v>3</v>
+      </c>
+      <c r="AD3">
+        <v>3</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>7</v>
       </c>
-      <c r="F2">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <v>6</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <v>7</v>
-      </c>
-      <c r="L2">
-        <v>6</v>
-      </c>
-      <c r="M2">
-        <v>6</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>7</v>
-      </c>
-      <c r="P2">
-        <v>3</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>4</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>2</v>
-      </c>
-      <c r="V2">
-        <v>3</v>
-      </c>
-      <c r="W2">
-        <v>2</v>
-      </c>
-      <c r="X2">
-        <v>2</v>
-      </c>
-      <c r="Y2">
-        <v>3</v>
-      </c>
-      <c r="Z2">
-        <v>7</v>
-      </c>
-      <c r="AA2">
-        <v>5</v>
-      </c>
-      <c r="AB2">
-        <v>5</v>
-      </c>
-      <c r="AC2">
-        <v>2</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>4</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4">
         <v>2</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T4">
         <v>1</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W4">
         <v>1</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>5</v>
+      </c>
+      <c r="AC4">
+        <v>3</v>
+      </c>
+      <c r="AD4">
+        <v>3</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
         <v>4</v>
       </c>
-      <c r="AA4">
-        <v>1</v>
-      </c>
-      <c r="AB4">
-        <v>2</v>
-      </c>
-      <c r="AC4">
-        <v>1</v>
-      </c>
-      <c r="AD4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
       <c r="O5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>2</v>
       </c>
       <c r="Y5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD5">
+        <v>3</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -903,458 +933,488 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>4</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
       <c r="D8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>4</v>
       </c>
       <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>2</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
         <v>4</v>
       </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="K8">
-        <v>4</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8">
-        <v>4</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>3</v>
-      </c>
-      <c r="P8">
-        <v>2</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-      <c r="V8">
-        <v>2</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8">
-        <v>1</v>
-      </c>
-      <c r="Y8">
-        <v>2</v>
-      </c>
-      <c r="Z8">
-        <v>3</v>
-      </c>
-      <c r="AA8">
-        <v>3</v>
-      </c>
-      <c r="AB8">
-        <v>2</v>
-      </c>
       <c r="AC8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T9">
         <v>1</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="AE9">
+        <v>2</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>1</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10">
         <v>1</v>
       </c>
       <c r="Y10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD10">
         <v>1</v>
       </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W11">
         <v>1</v>
@@ -1363,259 +1423,277 @@
         <v>1</v>
       </c>
       <c r="Y11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD11">
         <v>1</v>
       </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
       <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>6</v>
       </c>
-      <c r="F13">
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
         <v>4</v>
       </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-      <c r="H13">
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>3</v>
+      </c>
+      <c r="AB13">
         <v>4</v>
       </c>
-      <c r="I13">
-        <v>6</v>
-      </c>
-      <c r="J13">
-        <v>3</v>
-      </c>
-      <c r="K13">
+      <c r="AC13">
         <v>5</v>
       </c>
-      <c r="L13">
+      <c r="AD13">
         <v>5</v>
       </c>
-      <c r="M13">
-        <v>7</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>5</v>
-      </c>
-      <c r="P13">
-        <v>2</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13">
-        <v>3</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>2</v>
-      </c>
-      <c r="V13">
-        <v>3</v>
-      </c>
-      <c r="W13">
-        <v>2</v>
-      </c>
-      <c r="X13">
-        <v>2</v>
-      </c>
-      <c r="Y13">
-        <v>3</v>
-      </c>
-      <c r="Z13">
-        <v>6</v>
-      </c>
-      <c r="AA13">
-        <v>3</v>
-      </c>
-      <c r="AB13">
-        <v>3</v>
-      </c>
-      <c r="AC13">
-        <v>2</v>
-      </c>
-      <c r="AD13">
-        <v>1</v>
+      <c r="AE13">
+        <v>2</v>
+      </c>
+      <c r="AF13">
+        <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1630,25 +1708,25 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC14">
         <v>1</v>
@@ -1656,165 +1734,177 @@
       <c r="AD14">
         <v>1</v>
       </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>1</v>
       </c>
       <c r="R15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X15">
         <v>2</v>
       </c>
       <c r="Y15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -1826,13 +1916,13 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -1840,61 +1930,67 @@
       <c r="AD16">
         <v>0</v>
       </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:32">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>1</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17">
         <v>1</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -1906,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -1921,84 +2017,90 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17">
         <v>1</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:32">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -2007,16 +2109,16 @@
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC18">
         <v>0</v>
@@ -2024,8 +2126,14 @@
       <c r="AD18">
         <v>0</v>
       </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:32">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2033,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2048,13 +2156,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2063,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -2081,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -2096,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2105,42 +2213,48 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:32">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -2149,46 +2263,46 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20">
         <v>1</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2197,102 +2311,108 @@
         <v>1</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:32">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA21">
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -2300,61 +2420,67 @@
       <c r="AD21">
         <v>0</v>
       </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:32">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2363,42 +2489,48 @@
         <v>1</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V22">
         <v>3</v>
       </c>
       <c r="W22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X22">
         <v>2</v>
       </c>
       <c r="Y22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA22">
         <v>1</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC22">
         <v>1</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:32">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2407,37 +2539,37 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2452,51 +2584,57 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W23">
         <v>2</v>
       </c>
       <c r="X23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA23">
         <v>1</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23">
         <v>1</v>
       </c>
       <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:32">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -2505,13 +2643,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -2520,13 +2658,13 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24">
         <v>2</v>
@@ -2535,93 +2673,99 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24">
         <v>2</v>
       </c>
       <c r="W24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:32">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2630,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="R25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -2642,87 +2786,93 @@
         <v>0</v>
       </c>
       <c r="V25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD25">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:32">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -2731,96 +2881,102 @@
         <v>1</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AA26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:32">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <v>3</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -2832,179 +2988,191 @@
         <v>1</v>
       </c>
       <c r="X27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC27">
         <v>2</v>
       </c>
       <c r="AD27">
+        <v>2</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AF27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:32">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
         <v>5</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
       <c r="D28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>4</v>
       </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
       <c r="I28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
         <v>4</v>
       </c>
-      <c r="L28">
-        <v>4</v>
-      </c>
-      <c r="M28">
-        <v>3</v>
-      </c>
       <c r="N28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q28">
         <v>1</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB28">
         <v>5</v>
       </c>
       <c r="AC28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD28">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
+      </c>
+      <c r="AF28">
+        <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:32">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N29">
         <v>1</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29">
         <v>0</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -3016,54 +3184,60 @@
         <v>1</v>
       </c>
       <c r="X29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA29">
         <v>2</v>
       </c>
       <c r="AB29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD29">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="AE29">
+        <v>2</v>
+      </c>
+      <c r="AF29">
+        <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:32">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -3072,61 +3246,263 @@
         <v>1</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N30">
         <v>1</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30">
         <v>0</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30">
         <v>0</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD30">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="AE30">
+        <v>2</v>
+      </c>
+      <c r="AF30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>1</v>
+      </c>
+      <c r="AB31">
+        <v>1</v>
+      </c>
+      <c r="AC31">
+        <v>2</v>
+      </c>
+      <c r="AD31">
+        <v>2</v>
+      </c>
+      <c r="AE31">
+        <v>2</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>2</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>3</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <v>3</v>
+      </c>
+      <c r="AC32">
+        <v>2</v>
+      </c>
+      <c r="AD32">
+        <v>2</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
